--- a/similarities/split_global/harmonic_similarity_timestamps_387.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_387.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'G:min', 'D']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'F:min/b3', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:26.065941', '0:00:30.291972')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:23.413000', '0:00:30.988000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=26.065941']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=23.413']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A:min', 'D:min/A', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:09.720000', '0:00:13')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:28.140000', '0:00:36.100000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=9.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=28.14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:42.080000', '0:00:57.880000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:02:36.152000', '0:02:39.022000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:07.540000', '0:00:18')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=7.54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.390000', '0:00:17.230000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:39.910000', '0:00:43.270000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:14.770000', '0:00:19.670000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=39.91</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=14.77</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A#:min', 'D#:7/A#', 'G#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['C#:min', 'F#:7/A#', 'B:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:26.520000', '0:02:59.420000')]</t>
+          <t>('0:00:40.400000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:44.700000')]</t>
+          <t>('0:00:31.340000', '0:00:37.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=146.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=40.4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=31.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min'], ['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:38.840000', '0:01:56.600000'), ('0:00:14.060000', '0:00:43.980000')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:36.220000', '0:00:49'), ('0:00:41.920000', '0:00:52.740000')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=98.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=14.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=36.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=41.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:09.280000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:56.880000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=56.88</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+          <t>('0:00:07.525011', '0:00:12.935260')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:36.400000', '0:00:41.700000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000'), ('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:11.300000', '0:00:43.660000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.480000', '0:00:13.840000'), ('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:00:38.120000', '0:00:47.080000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=11.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=7.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=38.12</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj'], ['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:maj'], ['G#:7', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>['C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:44.660000', '0:00:48.480000'), ('0:00:45.820000', '0:00:49.080000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:07.920000', '0:00:10.200000'), ('0:00:08.480000', '0:00:10.780000')]</t>
+          <t>('0:01:16.585782', '0:01:18.064810')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=44.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=45.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=7.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=8.48']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
